--- a/biology/Botanique/Pernettya/Pernettya.xlsx
+++ b/biology/Botanique/Pernettya/Pernettya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pernettya est un genre de plante à fleurs de la famille des Ericaceae, parfois inclus dans le genre Gaultheria où le nom forme une section (Gaultheria sect. Pernettya), dont les espèces sont répandues au Mexique, Mésoamérique, Colombie, Venezuela, Équateur, Pérou, Bolivie, Chili, Argentine, Tasmanie et Nouvelle-Zélande.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le botaniste français, Charles Gaudichaud-Beaupré (1789-1854), dédia ce genre au bénédictin Antoine-Joseph Pernety (1716-1796), qui relata l’expédition de Louis-Antoine de Bougainville aux Iles Falkland, et au détroit de Magellan en 1763 et 1764[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le botaniste français, Charles Gaudichaud-Beaupré (1789-1854), dédia ce genre au bénédictin Antoine-Joseph Pernety (1716-1796), qui relata l’expédition de Louis-Antoine de Bougainville aux Iles Falkland, et au détroit de Magellan en 1763 et 1764.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon GRIN :
 Pernettya insana (Molina)  Gunckel
@@ -576,9 +592,11 @@
           <t>Caractère psychotrope</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pernettya insana (= Pernettya furiens, l'« herbe folle » ou « hierba loca » au Chili) et Pernettya parvifolia (en Équateur) sont réputées pour induire des hallucinations et d'autres modifications psychomotrices, il est même parfois question de démence définitive[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pernettya insana (= Pernettya furiens, l'« herbe folle » ou « hierba loca » au Chili) et Pernettya parvifolia (en Équateur) sont réputées pour induire des hallucinations et d'autres modifications psychomotrices, il est même parfois question de démence définitive.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Pernettya. Pépinières de Kerzarch, Merlevenez
